--- a/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
@@ -49,8 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -92,7 +93,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -105,7 +106,7 @@
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
@@ -40,9 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -457,8 +454,8 @@
       <x:c r="D3" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>8</x:v>
+      <x:c r="E3" s="1" t="b">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$3</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$3</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -27,6 +27,9 @@
     <x:t>Date Time</x:t>
   </x:si>
   <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
     <x:t>Enum</x:t>
   </x:si>
   <x:si>
@@ -46,9 +49,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
+    <x:numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
+    <x:numFmt numFmtId="165" formatCode="yyyy-MM-dd"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -86,15 +90,18 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -104,6 +111,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -402,7 +413,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E3"/>
+  <x:dimension ref="A1:F3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -413,11 +424,12 @@
     <x:col min="1" max="1" width="12.567768" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.282054" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.282054" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -433,33 +445,40 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="1"/>
       <x:c r="C2" s="1"/>
       <x:c r="D2" s="1"/>
       <x:c r="E2" s="1"/>
+      <x:c r="F2" s="1"/>
     </x:row>
-    <x:row r="3" spans="1:5">
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2">
+        <x:v>43831.4271412037</x:v>
+      </x:c>
+      <x:c r="D3" s="3">
         <x:v>43831</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="b">
+      <x:c r="E3" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:E3"/>
+  <x:autoFilter ref="A1:F3"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
@@ -423,8 +423,8 @@
   <x:cols>
     <x:col min="1" max="1" width="12.567768" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.282054" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.139196" style="0" customWidth="1"/>
   </x:cols>

--- a/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
@@ -429,7 +429,7 @@
     <x:col min="6" max="6" width="9.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:6" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -449,7 +449,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" ht="15" customHeight="1">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="1"/>
       <x:c r="C2" s="1"/>
@@ -457,7 +457,7 @@
       <x:c r="E2" s="1"/>
       <x:c r="F2" s="1"/>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:6" ht="14.25" customHeight="1">
       <x:c r="A3" s="1" t="s">
         <x:v>6</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/NullableTests.Nulls.verified.xlsx
@@ -421,12 +421,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.567768" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.567768" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.282054" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="14.25" customHeight="1">
